--- a/Data/ROY Data/rookies_18_19.xlsx
+++ b/Data/ROY Data/rookies_18_19.xlsx
@@ -1499,76 +1499,76 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>936</v>
+        <v>416</v>
       </c>
       <c r="I6">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="J6">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="K6">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="L6">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N6">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="O6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="Q6">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="R6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T6">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="U6">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="V6">
-        <v>437</v>
+        <v>211</v>
       </c>
       <c r="W6">
-        <v>0.413</v>
+        <v>0.376</v>
       </c>
       <c r="X6">
-        <v>0.346</v>
+        <v>0.323</v>
       </c>
       <c r="Y6">
-        <v>0.781</v>
+        <v>0.75</v>
       </c>
       <c r="Z6">
-        <v>13.6</v>
+        <v>10.9</v>
       </c>
       <c r="AA6">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="AB6">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD6" t="s">
         <v>215</v>
@@ -1591,13 +1591,13 @@
         <v>21</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
       <c r="H7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -1648,16 +1648,16 @@
         <v>0.5</v>
       </c>
       <c r="Z7">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="AA7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="s">
         <v>215</v>
@@ -1680,73 +1680,73 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H8">
-        <v>3214</v>
+        <v>2183</v>
       </c>
       <c r="I8">
-        <v>775</v>
+        <v>509</v>
       </c>
       <c r="J8">
-        <v>1349</v>
+        <v>870</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="N8">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="O8">
-        <v>349</v>
+        <v>223</v>
       </c>
       <c r="P8">
-        <v>1101</v>
+        <v>729</v>
       </c>
       <c r="Q8">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="R8">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="S8">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="T8">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="U8">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="V8">
-        <v>1753</v>
+        <v>1159</v>
       </c>
       <c r="W8">
-        <v>0.574</v>
+        <v>0.585</v>
       </c>
       <c r="X8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.753</v>
+        <v>0.746</v>
       </c>
       <c r="Z8">
-        <v>31.5</v>
+        <v>30.7</v>
       </c>
       <c r="AA8">
-        <v>17.2</v>
+        <v>16.3</v>
       </c>
       <c r="AB8">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
       <c r="AC8">
         <v>1.8</v>
@@ -1772,70 +1772,70 @@
         <v>19</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H9">
-        <v>1901</v>
+        <v>1567</v>
       </c>
       <c r="I9">
-        <v>434</v>
+        <v>356</v>
       </c>
       <c r="J9">
-        <v>873</v>
+        <v>706</v>
       </c>
       <c r="K9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L9">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="N9">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="O9">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="P9">
-        <v>568</v>
+        <v>471</v>
       </c>
       <c r="Q9">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="R9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S9">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="T9">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="U9">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="V9">
-        <v>1108</v>
+        <v>923</v>
       </c>
       <c r="W9">
-        <v>0.497</v>
+        <v>0.504</v>
       </c>
       <c r="X9">
-        <v>0.288</v>
+        <v>0.313</v>
       </c>
       <c r="Y9">
-        <v>0.703</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="Z9">
         <v>25.3</v>
       </c>
       <c r="AA9">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="AB9">
         <v>7.6</v>
@@ -1864,73 +1864,73 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="H10">
-        <v>1638</v>
+        <v>766</v>
       </c>
       <c r="I10">
-        <v>249</v>
+        <v>117</v>
       </c>
       <c r="J10">
-        <v>528</v>
+        <v>243</v>
       </c>
       <c r="K10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="L10">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="N10">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="O10">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="P10">
-        <v>534</v>
+        <v>233</v>
       </c>
       <c r="Q10">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="S10">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="T10">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="U10">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="V10">
-        <v>624</v>
+        <v>292</v>
       </c>
       <c r="W10">
-        <v>0.472</v>
+        <v>0.481</v>
       </c>
       <c r="X10">
-        <v>0.328</v>
+        <v>0.3</v>
       </c>
       <c r="Y10">
-        <v>0.624</v>
+        <v>0.587</v>
       </c>
       <c r="Z10">
-        <v>15.2</v>
+        <v>16.3</v>
       </c>
       <c r="AA10">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AB10">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AC10">
         <v>0.8</v>
@@ -1956,76 +1956,76 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>1168</v>
+        <v>503</v>
       </c>
       <c r="I11">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="J11">
-        <v>350</v>
+        <v>142</v>
       </c>
       <c r="K11">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="L11">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="N11">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="O11">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="P11">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="Q11">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="R11">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="S11">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="T11">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="U11">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="V11">
-        <v>409</v>
+        <v>151</v>
       </c>
       <c r="W11">
-        <v>0.426</v>
+        <v>0.423</v>
       </c>
       <c r="X11">
-        <v>0.301</v>
+        <v>0.25</v>
       </c>
       <c r="Y11">
-        <v>0.6909999999999999</v>
+        <v>0.643</v>
       </c>
       <c r="Z11">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="AA11">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="AB11">
         <v>2.8</v>
       </c>
       <c r="AC11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD11" t="s">
         <v>215</v>
@@ -2229,76 +2229,76 @@
         <v>23</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>686</v>
+        <v>639</v>
       </c>
       <c r="I14">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J14">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K14">
         <v>34</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N14">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O14">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P14">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>40</v>
       </c>
       <c r="R14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T14">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U14">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="V14">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="W14">
-        <v>0.486</v>
+        <v>0.494</v>
       </c>
       <c r="X14">
-        <v>0.34</v>
+        <v>0.354</v>
       </c>
       <c r="Y14">
-        <v>0.484</v>
+        <v>0.481</v>
       </c>
       <c r="Z14">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA14">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AB14">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD14" t="s">
         <v>215</v>
@@ -2321,76 +2321,76 @@
         <v>19</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>1168</v>
+        <v>120</v>
       </c>
       <c r="I15">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="O15">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="P15">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="Q15">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="R15">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="S15">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="U15">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="V15">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="W15">
-        <v>0.462</v>
+        <v>0.152</v>
       </c>
       <c r="X15">
-        <v>0.344</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>0.786</v>
+        <v>0.6</v>
       </c>
       <c r="Z15">
-        <v>14.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA15">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="AB15">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD15" t="s">
         <v>215</v>
@@ -2413,76 +2413,76 @@
         <v>22</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="H16">
-        <v>4223</v>
+        <v>2417</v>
       </c>
       <c r="I16">
-        <v>456</v>
+        <v>242</v>
       </c>
       <c r="J16">
-        <v>978</v>
+        <v>563</v>
       </c>
       <c r="K16">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="L16">
-        <v>477</v>
+        <v>313</v>
       </c>
       <c r="M16">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="N16">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="O16">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="P16">
-        <v>526</v>
+        <v>264</v>
       </c>
       <c r="Q16">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="R16">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="S16">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T16">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="U16">
-        <v>345</v>
+        <v>201</v>
       </c>
       <c r="V16">
-        <v>1262</v>
+        <v>684</v>
       </c>
       <c r="W16">
-        <v>0.466</v>
+        <v>0.43</v>
       </c>
       <c r="X16">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
       <c r="Y16">
-        <v>0.821</v>
+        <v>0.805</v>
       </c>
       <c r="Z16">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="AA16">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB16">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AC16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD16" t="s">
         <v>215</v>
@@ -2505,76 +2505,76 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="H17">
-        <v>3691</v>
+        <v>1696</v>
       </c>
       <c r="I17">
-        <v>556</v>
+        <v>237</v>
       </c>
       <c r="J17">
-        <v>1264</v>
+        <v>511</v>
       </c>
       <c r="K17">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="L17">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M17">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="N17">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="O17">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="P17">
-        <v>685</v>
+        <v>323</v>
       </c>
       <c r="Q17">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="R17">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="S17">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="T17">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="U17">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="V17">
-        <v>1440</v>
+        <v>597</v>
       </c>
       <c r="W17">
-        <v>0.44</v>
+        <v>0.464</v>
       </c>
       <c r="X17">
-        <v>0.328</v>
+        <v>0.325</v>
       </c>
       <c r="Y17">
-        <v>0.788</v>
+        <v>0.753</v>
       </c>
       <c r="Z17">
-        <v>25.5</v>
+        <v>21.2</v>
       </c>
       <c r="AA17">
-        <v>9.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB17">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AC17">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD17" t="s">
         <v>215</v>
@@ -2689,76 +2689,76 @@
         <v>28</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H19">
-        <v>633</v>
+        <v>453</v>
       </c>
       <c r="I19">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="J19">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="K19">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="L19">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>19</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>63</v>
+      </c>
+      <c r="Q19">
         <v>22</v>
       </c>
-      <c r="N19">
-        <v>27</v>
-      </c>
-      <c r="O19">
-        <v>13</v>
-      </c>
-      <c r="P19">
-        <v>106</v>
-      </c>
-      <c r="Q19">
-        <v>33</v>
-      </c>
       <c r="R19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T19">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="U19">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="V19">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="W19">
-        <v>0.427</v>
+        <v>0.452</v>
       </c>
       <c r="X19">
-        <v>0.403</v>
+        <v>0.409</v>
       </c>
       <c r="Y19">
-        <v>0.8149999999999999</v>
+        <v>0.789</v>
       </c>
       <c r="Z19">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="AA19">
         <v>4</v>
       </c>
       <c r="AB19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AC19">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD19" t="s">
         <v>215</v>
@@ -2781,76 +2781,76 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="H20">
-        <v>3083</v>
+        <v>1449</v>
       </c>
       <c r="I20">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="J20">
-        <v>761</v>
+        <v>314</v>
       </c>
       <c r="K20">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="L20">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="M20">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="N20">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="O20">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="P20">
-        <v>459</v>
+        <v>185</v>
       </c>
       <c r="Q20">
-        <v>321</v>
+        <v>91</v>
       </c>
       <c r="R20">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="S20">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="T20">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="U20">
-        <v>340</v>
+        <v>178</v>
       </c>
       <c r="V20">
-        <v>836</v>
+        <v>319</v>
       </c>
       <c r="W20">
-        <v>0.424</v>
+        <v>0.398</v>
       </c>
       <c r="X20">
-        <v>0.302</v>
+        <v>0.258</v>
       </c>
       <c r="Y20">
-        <v>0.743</v>
+        <v>0.75</v>
       </c>
       <c r="Z20">
-        <v>23.4</v>
+        <v>19.6</v>
       </c>
       <c r="AA20">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="AB20">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AC20">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD20" t="s">
         <v>215</v>
@@ -2873,76 +2873,76 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="H21">
-        <v>2276</v>
+        <v>730</v>
       </c>
       <c r="I21">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="J21">
-        <v>751</v>
+        <v>234</v>
       </c>
       <c r="K21">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="L21">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="M21">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="N21">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="P21">
-        <v>471</v>
+        <v>145</v>
       </c>
       <c r="Q21">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="R21">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="S21">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="U21">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="V21">
-        <v>857</v>
+        <v>248</v>
       </c>
       <c r="W21">
-        <v>0.442</v>
+        <v>0.415</v>
       </c>
       <c r="X21">
-        <v>0.333</v>
+        <v>0.319</v>
       </c>
       <c r="Y21">
-        <v>0.738</v>
+        <v>0.681</v>
       </c>
       <c r="Z21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AA21">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="AB21">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="AC21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AD21" t="s">
         <v>215</v>
@@ -2965,70 +2965,70 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="H22">
-        <v>2613</v>
+        <v>1591</v>
       </c>
       <c r="I22">
-        <v>445</v>
+        <v>264</v>
       </c>
       <c r="J22">
-        <v>953</v>
+        <v>565</v>
       </c>
       <c r="K22">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="L22">
-        <v>301</v>
+        <v>181</v>
       </c>
       <c r="M22">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="N22">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="O22">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="P22">
-        <v>303</v>
+        <v>169</v>
       </c>
       <c r="Q22">
-        <v>418</v>
+        <v>230</v>
       </c>
       <c r="R22">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="S22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T22">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="U22">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="V22">
-        <v>1144</v>
+        <v>678</v>
       </c>
       <c r="W22">
         <v>0.467</v>
       </c>
       <c r="X22">
-        <v>0.352</v>
+        <v>0.348</v>
       </c>
       <c r="Y22">
-        <v>0.759</v>
+        <v>0.725</v>
       </c>
       <c r="Z22">
-        <v>20.1</v>
+        <v>21.8</v>
       </c>
       <c r="AA22">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB22">
         <v>2.3</v>
@@ -3057,73 +3057,73 @@
         <v>25</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>524</v>
+        <v>240</v>
       </c>
       <c r="I23">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="J23">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L23">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N23">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="O23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="R23">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="T23">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="U23">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="V23">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="W23">
-        <v>0.385</v>
+        <v>0.402</v>
       </c>
       <c r="X23">
-        <v>0.247</v>
+        <v>0.296</v>
       </c>
       <c r="Y23">
-        <v>0.583</v>
+        <v>0.667</v>
       </c>
       <c r="Z23">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AA23">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AB23">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AC23">
         <v>0.3</v>
@@ -3149,76 +3149,76 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>1356</v>
+        <v>577</v>
       </c>
       <c r="I24">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="J24">
-        <v>395</v>
+        <v>185</v>
       </c>
       <c r="K24">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="L24">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N24">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="O24">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="P24">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="Q24">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="R24">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="S24">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="T24">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="U24">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="V24">
-        <v>410</v>
+        <v>172</v>
       </c>
       <c r="W24">
-        <v>0.354</v>
+        <v>0.303</v>
       </c>
       <c r="X24">
-        <v>0.363</v>
+        <v>0.333</v>
       </c>
       <c r="Y24">
-        <v>0.831</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="Z24">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="AA24">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AB24">
+        <v>1.7</v>
+      </c>
+      <c r="AC24">
         <v>1.8</v>
-      </c>
-      <c r="AC24">
-        <v>1.5</v>
       </c>
       <c r="AD24" t="s">
         <v>215</v>
@@ -3241,76 +3241,76 @@
         <v>19</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
+        <v>44</v>
+      </c>
+      <c r="H25">
+        <v>1110</v>
+      </c>
+      <c r="I25">
+        <v>180</v>
+      </c>
+      <c r="J25">
+        <v>371</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>32</v>
+      </c>
+      <c r="M25">
+        <v>89</v>
+      </c>
+      <c r="N25">
+        <v>112</v>
+      </c>
+      <c r="O25">
         <v>87</v>
       </c>
-      <c r="H25">
-        <v>2366</v>
-      </c>
-      <c r="I25">
-        <v>363</v>
-      </c>
-      <c r="J25">
-        <v>714</v>
-      </c>
-      <c r="K25">
-        <v>12</v>
-      </c>
-      <c r="L25">
-        <v>61</v>
-      </c>
-      <c r="M25">
-        <v>201</v>
-      </c>
-      <c r="N25">
-        <v>264</v>
-      </c>
-      <c r="O25">
-        <v>226</v>
-      </c>
       <c r="P25">
-        <v>712</v>
+        <v>307</v>
       </c>
       <c r="Q25">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="R25">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="S25">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="T25">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="U25">
-        <v>314</v>
+        <v>152</v>
       </c>
       <c r="V25">
-        <v>939</v>
+        <v>455</v>
       </c>
       <c r="W25">
-        <v>0.508</v>
+        <v>0.485</v>
       </c>
       <c r="X25">
-        <v>0.197</v>
+        <v>0.188</v>
       </c>
       <c r="Y25">
-        <v>0.761</v>
+        <v>0.795</v>
       </c>
       <c r="Z25">
-        <v>27.2</v>
+        <v>25.2</v>
       </c>
       <c r="AA25">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
       <c r="AB25">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC25">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD25" t="s">
         <v>215</v>
@@ -3422,76 +3422,70 @@
         <v>23</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
         <v>2</v>
       </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>41</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>10</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
+      <c r="W27">
+        <v>0.333</v>
+      </c>
+      <c r="Z27">
+        <v>8</v>
+      </c>
+      <c r="AA27">
         <v>2</v>
       </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-      <c r="R27">
-        <v>4</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27">
-        <v>3</v>
-      </c>
-      <c r="V27">
-        <v>4</v>
-      </c>
-      <c r="W27">
-        <v>0.1</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA27">
-        <v>0.8</v>
-      </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="s">
         <v>215</v>
@@ -3514,76 +3508,73 @@
         <v>23</v>
       </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>33</v>
+      </c>
+      <c r="I28">
         <v>2</v>
       </c>
-      <c r="G28">
-        <v>29</v>
-      </c>
-      <c r="H28">
-        <v>299</v>
-      </c>
-      <c r="I28">
-        <v>35</v>
-      </c>
       <c r="J28">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
         <v>2</v>
       </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>8</v>
-      </c>
-      <c r="P28">
-        <v>40</v>
-      </c>
-      <c r="Q28">
-        <v>55</v>
-      </c>
-      <c r="R28">
-        <v>16</v>
-      </c>
-      <c r="S28">
-        <v>3</v>
-      </c>
-      <c r="T28">
-        <v>18</v>
-      </c>
-      <c r="U28">
-        <v>27</v>
-      </c>
       <c r="V28">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="W28">
-        <v>0.376</v>
+        <v>0.25</v>
       </c>
       <c r="X28">
-        <v>0.392</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z28">
-        <v>10.3</v>
+        <v>4.7</v>
       </c>
       <c r="AA28">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="AB28">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AC28">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD28" t="s">
         <v>215</v>
@@ -3606,70 +3597,70 @@
         <v>24</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="H29">
-        <v>1072</v>
+        <v>641</v>
       </c>
       <c r="I29">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="J29">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="K29">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L29">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N29">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O29">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="P29">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="R29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S29">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="T29">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U29">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="V29">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="W29">
-        <v>0.35</v>
+        <v>0.331</v>
       </c>
       <c r="X29">
-        <v>0.31</v>
+        <v>0.297</v>
       </c>
       <c r="Y29">
-        <v>0.9379999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="AA29">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AB29">
         <v>2.3</v>
@@ -4149,76 +4140,76 @@
         <v>20</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H35">
-        <v>1225</v>
+        <v>526</v>
       </c>
       <c r="I35">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="J35">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="K35">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>36</v>
+      </c>
+      <c r="N35">
         <v>59</v>
       </c>
-      <c r="M35">
-        <v>64</v>
-      </c>
-      <c r="N35">
-        <v>104</v>
-      </c>
       <c r="O35">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P35">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="R35">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="S35">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T35">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="U35">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="V35">
-        <v>423</v>
+        <v>190</v>
       </c>
       <c r="W35">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="X35">
-        <v>0.186</v>
+        <v>0.167</v>
       </c>
       <c r="Y35">
-        <v>0.615</v>
+        <v>0.61</v>
       </c>
       <c r="Z35">
-        <v>13.8</v>
+        <v>10.3</v>
       </c>
       <c r="AA35">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="AB35">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AC35">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD35" t="s">
         <v>215</v>
@@ -4241,76 +4232,76 @@
         <v>22</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="H36">
-        <v>1799</v>
+        <v>411</v>
       </c>
       <c r="I36">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="J36">
-        <v>584</v>
+        <v>124</v>
       </c>
       <c r="K36">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="L36">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="M36">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N36">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="O36">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="P36">
-        <v>360</v>
+        <v>65</v>
       </c>
       <c r="Q36">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="R36">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="S36">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T36">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="U36">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="V36">
-        <v>695</v>
+        <v>131</v>
       </c>
       <c r="W36">
-        <v>0.45</v>
+        <v>0.403</v>
       </c>
       <c r="X36">
-        <v>0.324</v>
+        <v>0.265</v>
       </c>
       <c r="Y36">
-        <v>0.767</v>
+        <v>0.75</v>
       </c>
       <c r="Z36">
-        <v>20.7</v>
+        <v>15.2</v>
       </c>
       <c r="AA36">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="AB36">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="AC36">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AD36" t="s">
         <v>215</v>
@@ -4333,76 +4324,76 @@
         <v>19</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="H37">
-        <v>4159</v>
+        <v>2318</v>
       </c>
       <c r="I37">
-        <v>1029</v>
+        <v>506</v>
       </c>
       <c r="J37">
-        <v>2324</v>
+        <v>1186</v>
       </c>
       <c r="K37">
-        <v>325</v>
+        <v>168</v>
       </c>
       <c r="L37">
-        <v>1014</v>
+        <v>514</v>
       </c>
       <c r="M37">
-        <v>720</v>
+        <v>346</v>
       </c>
       <c r="N37">
-        <v>985</v>
+        <v>485</v>
       </c>
       <c r="O37">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="P37">
-        <v>1078</v>
+        <v>563</v>
       </c>
       <c r="Q37">
-        <v>909</v>
+        <v>429</v>
       </c>
       <c r="R37">
+        <v>77</v>
+      </c>
+      <c r="S37">
+        <v>25</v>
+      </c>
+      <c r="T37">
+        <v>247</v>
+      </c>
+      <c r="U37">
         <v>137</v>
       </c>
-      <c r="S37">
-        <v>36</v>
-      </c>
-      <c r="T37">
-        <v>482</v>
-      </c>
-      <c r="U37">
-        <v>277</v>
-      </c>
       <c r="V37">
-        <v>3103</v>
+        <v>1526</v>
       </c>
       <c r="W37">
-        <v>0.443</v>
+        <v>0.427</v>
       </c>
       <c r="X37">
-        <v>0.321</v>
+        <v>0.327</v>
       </c>
       <c r="Y37">
-        <v>0.731</v>
+        <v>0.713</v>
       </c>
       <c r="Z37">
-        <v>32.7</v>
+        <v>32.2</v>
       </c>
       <c r="AA37">
-        <v>24.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB37">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC37">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AD37" t="s">
         <v>215</v>
@@ -4603,73 +4594,70 @@
         <v>21</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>23</v>
+      </c>
+      <c r="H40">
+        <v>113</v>
+      </c>
+      <c r="I40">
+        <v>15</v>
+      </c>
+      <c r="J40">
+        <v>26</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>11</v>
+      </c>
+      <c r="N40">
+        <v>13</v>
+      </c>
+      <c r="O40">
+        <v>6</v>
+      </c>
+      <c r="P40">
+        <v>34</v>
+      </c>
+      <c r="Q40">
+        <v>7</v>
+      </c>
+      <c r="R40">
         <v>2</v>
       </c>
-      <c r="G40">
-        <v>38</v>
-      </c>
-      <c r="H40">
-        <v>245</v>
-      </c>
-      <c r="I40">
-        <v>37</v>
-      </c>
-      <c r="J40">
-        <v>55</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>19</v>
-      </c>
-      <c r="N40">
-        <v>24</v>
-      </c>
-      <c r="O40">
-        <v>14</v>
-      </c>
-      <c r="P40">
-        <v>69</v>
-      </c>
-      <c r="Q40">
-        <v>12</v>
-      </c>
-      <c r="R40">
-        <v>4</v>
-      </c>
       <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>8</v>
+      </c>
+      <c r="U40">
         <v>11</v>
       </c>
-      <c r="T40">
-        <v>18</v>
-      </c>
-      <c r="U40">
-        <v>32</v>
-      </c>
       <c r="V40">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="W40">
-        <v>0.673</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
+        <v>0.577</v>
       </c>
       <c r="Y40">
-        <v>0.792</v>
+        <v>0.846</v>
       </c>
       <c r="Z40">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="AA40">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AB40">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AC40">
         <v>0.3</v>
@@ -4695,76 +4683,76 @@
         <v>21</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>622</v>
+        <v>204</v>
       </c>
       <c r="I41">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="J41">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>6</v>
+      </c>
+      <c r="P41">
         <v>25</v>
       </c>
-      <c r="N41">
-        <v>30</v>
-      </c>
-      <c r="O41">
-        <v>15</v>
-      </c>
-      <c r="P41">
-        <v>66</v>
-      </c>
       <c r="Q41">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="R41">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="S41">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="U41">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="V41">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="W41">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="X41">
-        <v>0.315</v>
+        <v>0.267</v>
       </c>
       <c r="Y41">
-        <v>0.833</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="AA41">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="AB41">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD41" t="s">
         <v>215</v>
@@ -4787,73 +4775,73 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H42">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I42">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J42">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
         <v>4</v>
       </c>
-      <c r="L42">
-        <v>13</v>
-      </c>
-      <c r="M42">
+      <c r="O42">
         <v>3</v>
       </c>
-      <c r="N42">
-        <v>8</v>
-      </c>
-      <c r="O42">
-        <v>4</v>
-      </c>
       <c r="P42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
         <v>6</v>
       </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
-      <c r="T42">
-        <v>4</v>
-      </c>
-      <c r="U42">
-        <v>14</v>
-      </c>
       <c r="V42">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="W42">
-        <v>0.342</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="Z42">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="AA42">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AB42">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AC42">
         <v>0.1</v>
@@ -4971,19 +4959,19 @@
         <v>20</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="H44">
-        <v>1403</v>
+        <v>820</v>
       </c>
       <c r="I44">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="J44">
-        <v>557</v>
+        <v>348</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4992,55 +4980,55 @@
         <v>6</v>
       </c>
       <c r="M44">
+        <v>58</v>
+      </c>
+      <c r="N44">
         <v>91</v>
       </c>
-      <c r="N44">
-        <v>134</v>
-      </c>
       <c r="O44">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="P44">
-        <v>382</v>
+        <v>222</v>
       </c>
       <c r="Q44">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="R44">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="S44">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="T44">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="U44">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="V44">
-        <v>675</v>
+        <v>408</v>
       </c>
       <c r="W44">
-        <v>0.524</v>
+        <v>0.503</v>
       </c>
       <c r="X44">
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>0.679</v>
+        <v>0.637</v>
       </c>
       <c r="Z44">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="AA44">
         <v>7</v>
       </c>
       <c r="AB44">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AC44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD44" t="s">
         <v>215</v>
@@ -5063,73 +5051,73 @@
         <v>20</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="H45">
-        <v>4388</v>
+        <v>2174</v>
       </c>
       <c r="I45">
-        <v>783</v>
+        <v>341</v>
       </c>
       <c r="J45">
-        <v>1651</v>
+        <v>716</v>
       </c>
       <c r="K45">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="L45">
-        <v>361</v>
+        <v>139</v>
       </c>
       <c r="M45">
-        <v>410</v>
+        <v>156</v>
       </c>
       <c r="N45">
-        <v>512</v>
+        <v>195</v>
       </c>
       <c r="O45">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="P45">
-        <v>616</v>
+        <v>232</v>
       </c>
       <c r="Q45">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="R45">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="S45">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="T45">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="U45">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="V45">
-        <v>2105</v>
+        <v>889</v>
       </c>
       <c r="W45">
-        <v>0.474</v>
+        <v>0.476</v>
       </c>
       <c r="X45">
-        <v>0.357</v>
+        <v>0.367</v>
       </c>
       <c r="Y45">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="Z45">
-        <v>30.3</v>
+        <v>26.5</v>
       </c>
       <c r="AA45">
-        <v>14.5</v>
+        <v>10.8</v>
       </c>
       <c r="AB45">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC45">
         <v>3.3</v>
@@ -5155,76 +5143,76 @@
         <v>23</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+      <c r="H46">
+        <v>57</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>23</v>
+      </c>
+      <c r="K46">
         <v>2</v>
       </c>
-      <c r="G46">
-        <v>50</v>
-      </c>
-      <c r="H46">
-        <v>487</v>
-      </c>
-      <c r="I46">
-        <v>82</v>
-      </c>
-      <c r="J46">
-        <v>213</v>
-      </c>
-      <c r="K46">
-        <v>28</v>
-      </c>
       <c r="L46">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="M46">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="N46">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="O46">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="R46">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="V46">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="W46">
-        <v>0.385</v>
+        <v>0.261</v>
       </c>
       <c r="X46">
-        <v>0.301</v>
+        <v>0.333</v>
       </c>
       <c r="Y46">
-        <v>0.902</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="Z46">
-        <v>9.699999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="AA46">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="AB46">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AC46">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AD46" t="s">
         <v>215</v>
@@ -5247,76 +5235,76 @@
         <v>23</v>
       </c>
       <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="H47">
+        <v>676</v>
+      </c>
+      <c r="I47">
+        <v>74</v>
+      </c>
+      <c r="J47">
+        <v>216</v>
+      </c>
+      <c r="K47">
+        <v>34</v>
+      </c>
+      <c r="L47">
+        <v>121</v>
+      </c>
+      <c r="M47">
+        <v>35</v>
+      </c>
+      <c r="N47">
+        <v>46</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <v>63</v>
+      </c>
+      <c r="Q47">
+        <v>121</v>
+      </c>
+      <c r="R47">
+        <v>23</v>
+      </c>
+      <c r="S47">
         <v>2</v>
       </c>
-      <c r="G47">
-        <v>109</v>
-      </c>
-      <c r="H47">
-        <v>2887</v>
-      </c>
-      <c r="I47">
-        <v>442</v>
-      </c>
-      <c r="J47">
-        <v>1179</v>
-      </c>
-      <c r="K47">
-        <v>252</v>
-      </c>
-      <c r="L47">
-        <v>706</v>
-      </c>
-      <c r="M47">
-        <v>226</v>
-      </c>
-      <c r="N47">
-        <v>279</v>
-      </c>
-      <c r="O47">
-        <v>52</v>
-      </c>
-      <c r="P47">
-        <v>275</v>
-      </c>
-      <c r="Q47">
-        <v>592</v>
-      </c>
-      <c r="R47">
-        <v>85</v>
-      </c>
-      <c r="S47">
-        <v>17</v>
-      </c>
       <c r="T47">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="U47">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="V47">
-        <v>1362</v>
+        <v>217</v>
       </c>
       <c r="W47">
-        <v>0.375</v>
+        <v>0.343</v>
       </c>
       <c r="X47">
-        <v>0.357</v>
+        <v>0.281</v>
       </c>
       <c r="Y47">
-        <v>0.8100000000000001</v>
+        <v>0.761</v>
       </c>
       <c r="Z47">
-        <v>26.5</v>
+        <v>14.7</v>
       </c>
       <c r="AA47">
-        <v>12.5</v>
+        <v>4.7</v>
       </c>
       <c r="AB47">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="AC47">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD47" t="s">
         <v>215</v>
@@ -5428,37 +5416,37 @@
         <v>25</v>
       </c>
       <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>2</v>
       </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
       <c r="H49">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I49">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
         <v>2</v>
       </c>
-      <c r="L49">
-        <v>8</v>
-      </c>
-      <c r="M49">
-        <v>4</v>
-      </c>
       <c r="N49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -5473,31 +5461,31 @@
         <v>1</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V49">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="W49">
-        <v>0.333</v>
+        <v>0.25</v>
       </c>
       <c r="X49">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>1</v>
       </c>
       <c r="Z49">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AA49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB49">
         <v>0.5</v>
       </c>
       <c r="AC49">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD49" t="s">
         <v>215</v>
@@ -5520,76 +5508,76 @@
         <v>20</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H50">
-        <v>487</v>
+        <v>221</v>
       </c>
       <c r="I50">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="J50">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="K50">
         <v>2</v>
       </c>
       <c r="L50">
+        <v>6</v>
+      </c>
+      <c r="M50">
         <v>11</v>
       </c>
-      <c r="M50">
-        <v>30</v>
-      </c>
       <c r="N50">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O50">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P50">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="Q50">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="R50">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="S50">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="T50">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="U50">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="V50">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="W50">
-        <v>0.593</v>
+        <v>0.488</v>
       </c>
       <c r="X50">
-        <v>0.182</v>
+        <v>0.333</v>
       </c>
       <c r="Y50">
-        <v>0.714</v>
+        <v>0.786</v>
       </c>
       <c r="Z50">
-        <v>9.5</v>
+        <v>7.9</v>
       </c>
       <c r="AA50">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB50">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="AC50">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD50" t="s">
         <v>215</v>
@@ -5704,76 +5692,76 @@
         <v>22</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="H52">
-        <v>2014</v>
+        <v>646</v>
       </c>
       <c r="I52">
-        <v>307</v>
+        <v>105</v>
       </c>
       <c r="J52">
-        <v>758</v>
+        <v>262</v>
       </c>
       <c r="K52">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="L52">
-        <v>330</v>
+        <v>127</v>
       </c>
       <c r="M52">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="N52">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="O52">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="Q52">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="R52">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="S52">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="T52">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="U52">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="V52">
-        <v>840</v>
+        <v>294</v>
       </c>
       <c r="W52">
-        <v>0.405</v>
+        <v>0.401</v>
       </c>
       <c r="X52">
-        <v>0.373</v>
+        <v>0.339</v>
       </c>
       <c r="Y52">
-        <v>0.844</v>
+        <v>0.82</v>
       </c>
       <c r="Z52">
-        <v>18.6</v>
+        <v>12.9</v>
       </c>
       <c r="AA52">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB52">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AC52">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD52" t="s">
         <v>215</v>
@@ -5796,76 +5784,76 @@
         <v>20</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="H53">
-        <v>3808</v>
+        <v>2048</v>
       </c>
       <c r="I53">
-        <v>527</v>
+        <v>275</v>
       </c>
       <c r="J53">
-        <v>1267</v>
+        <v>657</v>
       </c>
       <c r="K53">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="L53">
-        <v>687</v>
+        <v>353</v>
       </c>
       <c r="M53">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="N53">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="O53">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="P53">
-        <v>473</v>
+        <v>245</v>
       </c>
       <c r="Q53">
-        <v>427</v>
+        <v>214</v>
       </c>
       <c r="R53">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="S53">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="T53">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="U53">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="V53">
-        <v>1411</v>
+        <v>727</v>
       </c>
       <c r="W53">
-        <v>0.416</v>
+        <v>0.419</v>
       </c>
       <c r="X53">
-        <v>0.383</v>
+        <v>0.385</v>
       </c>
       <c r="Y53">
-        <v>0.783</v>
+        <v>0.732</v>
       </c>
       <c r="Z53">
-        <v>29.1</v>
+        <v>27.3</v>
       </c>
       <c r="AA53">
-        <v>10.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB53">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AC53">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AD53" t="s">
         <v>215</v>
@@ -5977,73 +5965,73 @@
         <v>22</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="H55">
-        <v>1422</v>
+        <v>895</v>
       </c>
       <c r="I55">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="J55">
-        <v>384</v>
+        <v>209</v>
       </c>
       <c r="K55">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L55">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="M55">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N55">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="O55">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P55">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="Q55">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="R55">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="S55">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T55">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="U55">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="V55">
-        <v>447</v>
+        <v>229</v>
       </c>
       <c r="W55">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="X55">
-        <v>0.295</v>
+        <v>0.28</v>
       </c>
       <c r="Y55">
-        <v>0.595</v>
+        <v>0.605</v>
       </c>
       <c r="Z55">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="AA55">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="AB55">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AC55">
         <v>0.8</v>
@@ -6069,76 +6057,76 @@
         <v>20</v>
       </c>
       <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <v>1169</v>
+      </c>
+      <c r="I56">
+        <v>194</v>
+      </c>
+      <c r="J56">
+        <v>447</v>
+      </c>
+      <c r="K56">
+        <v>53</v>
+      </c>
+      <c r="L56">
+        <v>169</v>
+      </c>
+      <c r="M56">
+        <v>54</v>
+      </c>
+      <c r="N56">
+        <v>73</v>
+      </c>
+      <c r="O56">
+        <v>25</v>
+      </c>
+      <c r="P56">
+        <v>134</v>
+      </c>
+      <c r="Q56">
+        <v>69</v>
+      </c>
+      <c r="R56">
+        <v>25</v>
+      </c>
+      <c r="S56">
         <v>2</v>
       </c>
-      <c r="G56">
-        <v>113</v>
-      </c>
-      <c r="H56">
-        <v>1829</v>
-      </c>
-      <c r="I56">
-        <v>293</v>
-      </c>
-      <c r="J56">
-        <v>704</v>
-      </c>
-      <c r="K56">
+      <c r="T56">
+        <v>48</v>
+      </c>
+      <c r="U56">
         <v>92</v>
       </c>
-      <c r="L56">
-        <v>289</v>
-      </c>
-      <c r="M56">
-        <v>102</v>
-      </c>
-      <c r="N56">
-        <v>137</v>
-      </c>
-      <c r="O56">
-        <v>44</v>
-      </c>
-      <c r="P56">
-        <v>206</v>
-      </c>
-      <c r="Q56">
-        <v>111</v>
-      </c>
-      <c r="R56">
-        <v>40</v>
-      </c>
-      <c r="S56">
-        <v>6</v>
-      </c>
-      <c r="T56">
-        <v>91</v>
-      </c>
-      <c r="U56">
-        <v>159</v>
-      </c>
       <c r="V56">
-        <v>780</v>
+        <v>495</v>
       </c>
       <c r="W56">
-        <v>0.416</v>
+        <v>0.434</v>
       </c>
       <c r="X56">
-        <v>0.318</v>
+        <v>0.314</v>
       </c>
       <c r="Y56">
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
       <c r="Z56">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="AA56">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="AB56">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD56" t="s">
         <v>215</v>
@@ -6161,76 +6149,76 @@
         <v>19</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="H57">
-        <v>3070</v>
+        <v>1515</v>
       </c>
       <c r="I57">
-        <v>636</v>
+        <v>298</v>
       </c>
       <c r="J57">
-        <v>1312</v>
+        <v>589</v>
       </c>
       <c r="K57">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="L57">
-        <v>497</v>
+        <v>142</v>
       </c>
       <c r="M57">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="N57">
-        <v>372</v>
+        <v>197</v>
       </c>
       <c r="O57">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="P57">
-        <v>529</v>
+        <v>272</v>
       </c>
       <c r="Q57">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="R57">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="S57">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="T57">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="U57">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="V57">
-        <v>1745</v>
+        <v>798</v>
       </c>
       <c r="W57">
-        <v>0.485</v>
+        <v>0.506</v>
       </c>
       <c r="X57">
-        <v>0.386</v>
+        <v>0.359</v>
       </c>
       <c r="Y57">
-        <v>0.755</v>
+        <v>0.766</v>
       </c>
       <c r="Z57">
-        <v>27.2</v>
+        <v>26.1</v>
       </c>
       <c r="AA57">
-        <v>15.4</v>
+        <v>13.8</v>
       </c>
       <c r="AB57">
         <v>4.7</v>
       </c>
       <c r="AC57">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD57" t="s">
         <v>215</v>
@@ -6253,19 +6241,19 @@
         <v>25</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H58">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="I58">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J58">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -6274,52 +6262,52 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N58">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="O58">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P58">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Q58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U58">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="V58">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="W58">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="Y58">
-        <v>0.545</v>
+        <v>0.875</v>
       </c>
       <c r="Z58">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="AA58">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="AB58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AC58">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD58" t="s">
         <v>215</v>
@@ -6342,19 +6330,19 @@
         <v>22</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H59">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="I59">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J59">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -6363,19 +6351,19 @@
         <v>2</v>
       </c>
       <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
         <v>8</v>
       </c>
-      <c r="N59">
-        <v>14</v>
-      </c>
       <c r="O59">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -6384,28 +6372,28 @@
         <v>3</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U59">
+        <v>7</v>
+      </c>
+      <c r="V59">
         <v>13</v>
       </c>
-      <c r="V59">
-        <v>31</v>
-      </c>
       <c r="W59">
-        <v>0.355</v>
+        <v>0.25</v>
       </c>
       <c r="X59">
         <v>0.5</v>
       </c>
       <c r="Y59">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="Z59">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AA59">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AB59">
         <v>1.4</v>
@@ -6434,76 +6422,76 @@
         <v>23</v>
       </c>
       <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60">
+        <v>49</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+      <c r="J60">
+        <v>18</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
         <v>2</v>
       </c>
-      <c r="G60">
-        <v>15</v>
-      </c>
-      <c r="H60">
-        <v>95</v>
-      </c>
-      <c r="I60">
-        <v>14</v>
-      </c>
-      <c r="J60">
-        <v>36</v>
-      </c>
-      <c r="K60">
-        <v>4</v>
-      </c>
-      <c r="L60">
-        <v>13</v>
-      </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
       <c r="N60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P60">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
         <v>2</v>
       </c>
-      <c r="R60">
-        <v>4</v>
-      </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U60">
         <v>4</v>
       </c>
       <c r="V60">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="W60">
-        <v>0.389</v>
+        <v>0.5</v>
       </c>
       <c r="X60">
-        <v>0.308</v>
+        <v>0.429</v>
       </c>
       <c r="Y60">
         <v>1</v>
       </c>
       <c r="Z60">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AA60">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB60">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AC60">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="s">
         <v>215</v>
@@ -6701,76 +6689,76 @@
         <v>19</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="H63">
-        <v>3324</v>
+        <v>2158</v>
       </c>
       <c r="I63">
-        <v>482</v>
+        <v>338</v>
       </c>
       <c r="J63">
-        <v>1315</v>
+        <v>914</v>
       </c>
       <c r="K63">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="L63">
-        <v>563</v>
+        <v>364</v>
       </c>
       <c r="M63">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="N63">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="O63">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="P63">
-        <v>519</v>
+        <v>335</v>
       </c>
       <c r="Q63">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="R63">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="S63">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="T63">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="U63">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="V63">
-        <v>1382</v>
+        <v>963</v>
       </c>
       <c r="W63">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="X63">
-        <v>0.337</v>
+        <v>0.343</v>
       </c>
       <c r="Y63">
-        <v>0.697</v>
+        <v>0.717</v>
       </c>
       <c r="Z63">
-        <v>23.7</v>
+        <v>28.8</v>
       </c>
       <c r="AA63">
-        <v>9.9</v>
+        <v>12.8</v>
       </c>
       <c r="AB63">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD63" t="s">
         <v>215</v>
@@ -6793,73 +6781,73 @@
         <v>20</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="H64">
-        <v>1811</v>
+        <v>1294</v>
       </c>
       <c r="I64">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="J64">
-        <v>587</v>
+        <v>449</v>
       </c>
       <c r="K64">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="L64">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="M64">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="N64">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="O64">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="P64">
-        <v>349</v>
+        <v>246</v>
       </c>
       <c r="Q64">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="R64">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="S64">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T64">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="U64">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="V64">
-        <v>703</v>
+        <v>534</v>
       </c>
       <c r="W64">
         <v>0.45</v>
       </c>
       <c r="X64">
-        <v>0.333</v>
+        <v>0.315</v>
       </c>
       <c r="Y64">
-        <v>0.746</v>
+        <v>0.783</v>
       </c>
       <c r="Z64">
-        <v>17.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA64">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="AB64">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AC64">
         <v>0.8</v>
@@ -7066,25 +7054,25 @@
         <v>23</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H67">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>27</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+      <c r="L67">
         <v>11</v>
-      </c>
-      <c r="J67">
-        <v>30</v>
-      </c>
-      <c r="K67">
-        <v>6</v>
-      </c>
-      <c r="L67">
-        <v>13</v>
       </c>
       <c r="M67">
         <v>4</v>
@@ -7099,43 +7087,43 @@
         <v>12</v>
       </c>
       <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6</v>
+      </c>
+      <c r="U67">
         <v>8</v>
       </c>
-      <c r="R67">
-        <v>1</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>8</v>
-      </c>
-      <c r="U67">
-        <v>9</v>
-      </c>
       <c r="V67">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W67">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="X67">
-        <v>0.462</v>
+        <v>0.455</v>
       </c>
       <c r="Y67">
         <v>0.571</v>
       </c>
       <c r="Z67">
-        <v>8.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="AA67">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC67">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD67" t="s">
         <v>215</v>
@@ -7158,13 +7146,13 @@
         <v>23</v>
       </c>
       <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
         <v>2</v>
       </c>
-      <c r="G68">
-        <v>3</v>
-      </c>
       <c r="H68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -7215,16 +7203,16 @@
         <v>0</v>
       </c>
       <c r="Z68">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AA68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB68">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC68">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD68" t="s">
         <v>215</v>
@@ -7428,76 +7416,76 @@
         <v>20</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="H71">
-        <v>2025</v>
+        <v>984</v>
       </c>
       <c r="I71">
+        <v>100</v>
+      </c>
+      <c r="J71">
+        <v>256</v>
+      </c>
+      <c r="K71">
+        <v>29</v>
+      </c>
+      <c r="L71">
+        <v>95</v>
+      </c>
+      <c r="M71">
+        <v>21</v>
+      </c>
+      <c r="N71">
+        <v>28</v>
+      </c>
+      <c r="O71">
+        <v>25</v>
+      </c>
+      <c r="P71">
+        <v>134</v>
+      </c>
+      <c r="Q71">
+        <v>159</v>
+      </c>
+      <c r="R71">
+        <v>68</v>
+      </c>
+      <c r="S71">
+        <v>23</v>
+      </c>
+      <c r="T71">
+        <v>75</v>
+      </c>
+      <c r="U71">
+        <v>113</v>
+      </c>
+      <c r="V71">
         <v>250</v>
       </c>
-      <c r="J71">
-        <v>614</v>
-      </c>
-      <c r="K71">
-        <v>66</v>
-      </c>
-      <c r="L71">
-        <v>214</v>
-      </c>
-      <c r="M71">
-        <v>111</v>
-      </c>
-      <c r="N71">
-        <v>141</v>
-      </c>
-      <c r="O71">
-        <v>64</v>
-      </c>
-      <c r="P71">
-        <v>331</v>
-      </c>
-      <c r="Q71">
-        <v>318</v>
-      </c>
-      <c r="R71">
-        <v>135</v>
-      </c>
-      <c r="S71">
-        <v>42</v>
-      </c>
-      <c r="T71">
-        <v>154</v>
-      </c>
-      <c r="U71">
-        <v>208</v>
-      </c>
-      <c r="V71">
-        <v>677</v>
-      </c>
       <c r="W71">
-        <v>0.407</v>
+        <v>0.391</v>
       </c>
       <c r="X71">
-        <v>0.308</v>
+        <v>0.305</v>
       </c>
       <c r="Y71">
-        <v>0.787</v>
+        <v>0.75</v>
       </c>
       <c r="Z71">
         <v>19.7</v>
       </c>
       <c r="AA71">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="AB71">
+        <v>2.7</v>
+      </c>
+      <c r="AC71">
         <v>3.2</v>
-      </c>
-      <c r="AC71">
-        <v>3.1</v>
       </c>
       <c r="AD71" t="s">
         <v>215</v>
@@ -7520,73 +7508,73 @@
         <v>21</v>
       </c>
       <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>29</v>
+      </c>
+      <c r="H72">
+        <v>145</v>
+      </c>
+      <c r="I72">
+        <v>19</v>
+      </c>
+      <c r="J72">
+        <v>58</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
         <v>2</v>
       </c>
-      <c r="G72">
-        <v>45</v>
-      </c>
-      <c r="H72">
-        <v>218</v>
-      </c>
-      <c r="I72">
-        <v>39</v>
-      </c>
-      <c r="J72">
-        <v>93</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>3</v>
-      </c>
       <c r="M72">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N72">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="O72">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="P72">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="Q72">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U72">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V72">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="W72">
-        <v>0.419</v>
+        <v>0.328</v>
       </c>
       <c r="X72">
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>0.76</v>
+        <v>0.765</v>
       </c>
       <c r="Z72">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AA72">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AB72">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AC72">
         <v>0.4</v>
@@ -7612,76 +7600,76 @@
         <v>22</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H73">
-        <v>879</v>
+        <v>268</v>
       </c>
       <c r="I73">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="J73">
-        <v>304</v>
+        <v>87</v>
       </c>
       <c r="K73">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="L73">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="M73">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="N73">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="O73">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="P73">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="Q73">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="R73">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="S73">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T73">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="U73">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="V73">
-        <v>390</v>
+        <v>87</v>
       </c>
       <c r="W73">
-        <v>0.467</v>
+        <v>0.391</v>
       </c>
       <c r="X73">
-        <v>0.413</v>
+        <v>0.318</v>
       </c>
       <c r="Y73">
-        <v>0.759</v>
+        <v>0.714</v>
       </c>
       <c r="Z73">
-        <v>16.9</v>
+        <v>13.4</v>
       </c>
       <c r="AA73">
-        <v>7.5</v>
+        <v>4.4</v>
       </c>
       <c r="AB73">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AC73">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD73" t="s">
         <v>215</v>
@@ -7704,76 +7692,76 @@
         <v>19</v>
       </c>
       <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>9</v>
+      </c>
+      <c r="H74">
+        <v>39</v>
+      </c>
+      <c r="I74">
+        <v>9</v>
+      </c>
+      <c r="J74">
+        <v>22</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>10</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
         <v>2</v>
       </c>
-      <c r="G74">
-        <v>45</v>
-      </c>
-      <c r="H74">
-        <v>453</v>
-      </c>
-      <c r="I74">
-        <v>61</v>
-      </c>
-      <c r="J74">
-        <v>163</v>
-      </c>
-      <c r="K74">
-        <v>17</v>
-      </c>
-      <c r="L74">
-        <v>76</v>
-      </c>
-      <c r="M74">
-        <v>33</v>
-      </c>
-      <c r="N74">
-        <v>46</v>
-      </c>
       <c r="O74">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="R74">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="U74">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="V74">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="W74">
-        <v>0.374</v>
+        <v>0.409</v>
       </c>
       <c r="X74">
-        <v>0.224</v>
+        <v>0.1</v>
       </c>
       <c r="Y74">
-        <v>0.717</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>10.1</v>
+        <v>4.3</v>
       </c>
       <c r="AA74">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="AB74">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD74" t="s">
         <v>215</v>
@@ -7796,76 +7784,76 @@
         <v>21</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="H75">
-        <v>1705</v>
+        <v>440</v>
       </c>
       <c r="I75">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="J75">
-        <v>545</v>
+        <v>140</v>
       </c>
       <c r="K75">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="L75">
-        <v>374</v>
+        <v>89</v>
       </c>
       <c r="M75">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="N75">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="O75">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="P75">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="Q75">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="R75">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="S75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T75">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="U75">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="V75">
-        <v>637</v>
+        <v>133</v>
       </c>
       <c r="W75">
-        <v>0.389</v>
+        <v>0.329</v>
       </c>
       <c r="X75">
-        <v>0.385</v>
+        <v>0.326</v>
       </c>
       <c r="Y75">
-        <v>0.767</v>
+        <v>0.6</v>
       </c>
       <c r="Z75">
-        <v>17.4</v>
+        <v>10.5</v>
       </c>
       <c r="AA75">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="AB75">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AC75">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD75" t="s">
         <v>215</v>
@@ -7888,76 +7876,76 @@
         <v>21</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="H76">
-        <v>1665</v>
+        <v>958</v>
       </c>
       <c r="I76">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="J76">
-        <v>471</v>
+        <v>290</v>
       </c>
       <c r="K76">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="L76">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="M76">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="N76">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="O76">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="P76">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="Q76">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="R76">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S76">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T76">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="U76">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="V76">
-        <v>519</v>
+        <v>304</v>
       </c>
       <c r="W76">
-        <v>0.395</v>
+        <v>0.393</v>
       </c>
       <c r="X76">
-        <v>0.315</v>
+        <v>0.295</v>
       </c>
       <c r="Y76">
-        <v>0.728</v>
+        <v>0.787</v>
       </c>
       <c r="Z76">
-        <v>15.6</v>
+        <v>18.1</v>
       </c>
       <c r="AA76">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB76">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AC76">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD76" t="s">
         <v>215</v>
@@ -7980,76 +7968,76 @@
         <v>20</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="H77">
-        <v>3304</v>
+        <v>1757</v>
       </c>
       <c r="I77">
-        <v>366</v>
+        <v>196</v>
       </c>
       <c r="J77">
-        <v>906</v>
+        <v>508</v>
       </c>
       <c r="K77">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="L77">
-        <v>369</v>
+        <v>215</v>
       </c>
       <c r="M77">
-        <v>270</v>
+        <v>118</v>
       </c>
       <c r="N77">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="O77">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="P77">
-        <v>486</v>
+        <v>218</v>
       </c>
       <c r="Q77">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="R77">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="S77">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="T77">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="U77">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="V77">
-        <v>1103</v>
+        <v>570</v>
       </c>
       <c r="W77">
-        <v>0.404</v>
+        <v>0.386</v>
       </c>
       <c r="X77">
-        <v>0.274</v>
+        <v>0.279</v>
       </c>
       <c r="Y77">
-        <v>0.765</v>
+        <v>0.728</v>
       </c>
       <c r="Z77">
-        <v>24.3</v>
+        <v>23.7</v>
       </c>
       <c r="AA77">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="AB77">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AC77">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD77" t="s">
         <v>215</v>
@@ -8072,76 +8060,76 @@
         <v>23</v>
       </c>
       <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>18</v>
+      </c>
+      <c r="H78">
+        <v>211</v>
+      </c>
+      <c r="I78">
+        <v>25</v>
+      </c>
+      <c r="J78">
+        <v>73</v>
+      </c>
+      <c r="K78">
+        <v>12</v>
+      </c>
+      <c r="L78">
+        <v>46</v>
+      </c>
+      <c r="M78">
+        <v>19</v>
+      </c>
+      <c r="N78">
+        <v>22</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78">
+        <v>36</v>
+      </c>
+      <c r="Q78">
+        <v>21</v>
+      </c>
+      <c r="R78">
+        <v>6</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>18</v>
+      </c>
+      <c r="U78">
+        <v>15</v>
+      </c>
+      <c r="V78">
+        <v>81</v>
+      </c>
+      <c r="W78">
+        <v>0.342</v>
+      </c>
+      <c r="X78">
+        <v>0.261</v>
+      </c>
+      <c r="Y78">
+        <v>0.864</v>
+      </c>
+      <c r="Z78">
+        <v>11.7</v>
+      </c>
+      <c r="AA78">
+        <v>4.5</v>
+      </c>
+      <c r="AB78">
         <v>2</v>
       </c>
-      <c r="G78">
-        <v>51</v>
-      </c>
-      <c r="H78">
-        <v>576</v>
-      </c>
-      <c r="I78">
-        <v>70</v>
-      </c>
-      <c r="J78">
-        <v>228</v>
-      </c>
-      <c r="K78">
-        <v>27</v>
-      </c>
-      <c r="L78">
-        <v>126</v>
-      </c>
-      <c r="M78">
-        <v>34</v>
-      </c>
-      <c r="N78">
-        <v>38</v>
-      </c>
-      <c r="O78">
-        <v>14</v>
-      </c>
-      <c r="P78">
-        <v>90</v>
-      </c>
-      <c r="Q78">
-        <v>77</v>
-      </c>
-      <c r="R78">
-        <v>23</v>
-      </c>
-      <c r="S78">
-        <v>4</v>
-      </c>
-      <c r="T78">
-        <v>51</v>
-      </c>
-      <c r="U78">
-        <v>50</v>
-      </c>
-      <c r="V78">
-        <v>201</v>
-      </c>
-      <c r="W78">
-        <v>0.307</v>
-      </c>
-      <c r="X78">
-        <v>0.214</v>
-      </c>
-      <c r="Y78">
-        <v>0.895</v>
-      </c>
-      <c r="Z78">
-        <v>11.3</v>
-      </c>
-      <c r="AA78">
-        <v>3.9</v>
-      </c>
-      <c r="AB78">
-        <v>1.8</v>
-      </c>
       <c r="AC78">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AD78" t="s">
         <v>215</v>
@@ -8256,76 +8244,76 @@
         <v>24</v>
       </c>
       <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>15</v>
+      </c>
+      <c r="H80">
+        <v>161</v>
+      </c>
+      <c r="I80">
+        <v>18</v>
+      </c>
+      <c r="J80">
+        <v>46</v>
+      </c>
+      <c r="K80">
+        <v>10</v>
+      </c>
+      <c r="L80">
+        <v>35</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+      <c r="N80">
+        <v>6</v>
+      </c>
+      <c r="O80">
         <v>2</v>
       </c>
-      <c r="G80">
-        <v>80</v>
-      </c>
-      <c r="H80">
-        <v>2110</v>
-      </c>
-      <c r="I80">
-        <v>304</v>
-      </c>
-      <c r="J80">
-        <v>659</v>
-      </c>
-      <c r="K80">
-        <v>253</v>
-      </c>
-      <c r="L80">
-        <v>578</v>
-      </c>
-      <c r="M80">
-        <v>52</v>
-      </c>
-      <c r="N80">
-        <v>59</v>
-      </c>
-      <c r="O80">
+      <c r="P80">
+        <v>19</v>
+      </c>
+      <c r="Q80">
+        <v>5</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4</v>
+      </c>
+      <c r="U80">
         <v>11</v>
       </c>
-      <c r="P80">
-        <v>231</v>
-      </c>
-      <c r="Q80">
-        <v>96</v>
-      </c>
-      <c r="R80">
-        <v>40</v>
-      </c>
-      <c r="S80">
-        <v>15</v>
-      </c>
-      <c r="T80">
-        <v>64</v>
-      </c>
-      <c r="U80">
-        <v>190</v>
-      </c>
       <c r="V80">
-        <v>913</v>
+        <v>50</v>
       </c>
       <c r="W80">
-        <v>0.461</v>
+        <v>0.391</v>
       </c>
       <c r="X80">
-        <v>0.438</v>
+        <v>0.286</v>
       </c>
       <c r="Y80">
-        <v>0.881</v>
+        <v>0.667</v>
       </c>
       <c r="Z80">
-        <v>26.4</v>
+        <v>10.7</v>
       </c>
       <c r="AA80">
-        <v>11.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB80">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="AC80">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD80" t="s">
         <v>215</v>
@@ -8348,76 +8336,76 @@
         <v>21</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>1100</v>
+        <v>320</v>
       </c>
       <c r="I81">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="J81">
-        <v>335</v>
+        <v>110</v>
       </c>
       <c r="K81">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="L81">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="M81">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="N81">
+        <v>9</v>
+      </c>
+      <c r="O81">
+        <v>3</v>
+      </c>
+      <c r="P81">
         <v>41</v>
       </c>
-      <c r="O81">
-        <v>12</v>
-      </c>
-      <c r="P81">
-        <v>148</v>
-      </c>
       <c r="Q81">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="R81">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="S81">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T81">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="U81">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="V81">
-        <v>333</v>
+        <v>112</v>
       </c>
       <c r="W81">
-        <v>0.376</v>
+        <v>0.4</v>
       </c>
       <c r="X81">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="Y81">
-        <v>0.6830000000000001</v>
+        <v>0.667</v>
       </c>
       <c r="Z81">
-        <v>12.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA81">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AB81">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AD81" t="s">
         <v>215</v>
@@ -8440,19 +8428,19 @@
         <v>20</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="H82">
-        <v>2772</v>
+        <v>1360</v>
       </c>
       <c r="I82">
-        <v>455</v>
+        <v>202</v>
       </c>
       <c r="J82">
-        <v>632</v>
+        <v>291</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -8461,49 +8449,49 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="N82">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="O82">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="P82">
-        <v>851</v>
+        <v>423</v>
       </c>
       <c r="Q82">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="R82">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="S82">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="T82">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="U82">
-        <v>411</v>
+        <v>217</v>
       </c>
       <c r="V82">
-        <v>1075</v>
+        <v>485</v>
       </c>
       <c r="W82">
-        <v>0.72</v>
+        <v>0.694</v>
       </c>
       <c r="Y82">
-        <v>0.583</v>
+        <v>0.6</v>
       </c>
       <c r="Z82">
-        <v>21.8</v>
+        <v>20.6</v>
       </c>
       <c r="AA82">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB82">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AC82">
         <v>0.6</v>
@@ -8621,73 +8609,73 @@
         <v>20</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="H84">
-        <v>4748</v>
+        <v>2605</v>
       </c>
       <c r="I84">
-        <v>1032</v>
+        <v>519</v>
       </c>
       <c r="J84">
-        <v>2292</v>
+        <v>1206</v>
       </c>
       <c r="K84">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="L84">
-        <v>551</v>
+        <v>296</v>
       </c>
       <c r="M84">
-        <v>440</v>
+        <v>214</v>
       </c>
       <c r="N84">
-        <v>522</v>
+        <v>255</v>
       </c>
       <c r="O84">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="P84">
-        <v>440</v>
+        <v>236</v>
       </c>
       <c r="Q84">
-        <v>435</v>
+        <v>243</v>
       </c>
       <c r="R84">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="S84">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T84">
-        <v>343</v>
+        <v>185</v>
       </c>
       <c r="U84">
-        <v>328</v>
+        <v>186</v>
       </c>
       <c r="V84">
-        <v>2720</v>
+        <v>1371</v>
       </c>
       <c r="W84">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="X84">
-        <v>0.392</v>
+        <v>0.402</v>
       </c>
       <c r="Y84">
-        <v>0.843</v>
+        <v>0.839</v>
       </c>
       <c r="Z84">
-        <v>32.3</v>
+        <v>31.8</v>
       </c>
       <c r="AA84">
-        <v>18.5</v>
+        <v>16.7</v>
       </c>
       <c r="AB84">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AC84">
         <v>3</v>
@@ -8713,76 +8701,76 @@
         <v>21</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="H85">
-        <v>3118</v>
+        <v>1802</v>
       </c>
       <c r="I85">
-        <v>387</v>
+        <v>240</v>
       </c>
       <c r="J85">
-        <v>916</v>
+        <v>557</v>
       </c>
       <c r="K85">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="L85">
-        <v>669</v>
+        <v>396</v>
       </c>
       <c r="M85">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="N85">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="O85">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P85">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="Q85">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="R85">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="S85">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="T85">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="U85">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="V85">
-        <v>1178</v>
+        <v>722</v>
       </c>
       <c r="W85">
+        <v>0.431</v>
+      </c>
+      <c r="X85">
         <v>0.422</v>
       </c>
-      <c r="X85">
-        <v>0.407</v>
-      </c>
       <c r="Y85">
-        <v>0.846</v>
+        <v>0.806</v>
       </c>
       <c r="Z85">
-        <v>24.6</v>
+        <v>22.8</v>
       </c>
       <c r="AA85">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AB85">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC85">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD85" t="s">
         <v>215</v>
@@ -8894,76 +8882,76 @@
         <v>19</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="H87">
-        <v>1541</v>
+        <v>141</v>
       </c>
       <c r="I87">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="J87">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="K87">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="L87">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="M87">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="N87">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="O87">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="P87">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="Q87">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="R87">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="S87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T87">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="U87">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="V87">
-        <v>647</v>
+        <v>75</v>
       </c>
       <c r="W87">
-        <v>0.406</v>
+        <v>0.444</v>
       </c>
       <c r="X87">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="Y87">
-        <v>0.787</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Z87">
-        <v>18.1</v>
+        <v>7.1</v>
       </c>
       <c r="AA87">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB87">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AC87">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD87" t="s">
         <v>215</v>
@@ -8986,76 +8974,76 @@
         <v>19</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H88">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="I88">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J88">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K88">
         <v>6</v>
       </c>
       <c r="L88">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M88">
+        <v>6</v>
+      </c>
+      <c r="N88">
         <v>8</v>
-      </c>
-      <c r="N88">
-        <v>12</v>
       </c>
       <c r="O88">
         <v>3</v>
       </c>
       <c r="P88">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q88">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S88">
         <v>2</v>
       </c>
       <c r="T88">
+        <v>6</v>
+      </c>
+      <c r="U88">
         <v>8</v>
       </c>
-      <c r="U88">
-        <v>12</v>
-      </c>
       <c r="V88">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="W88">
-        <v>0.378</v>
+        <v>0.412</v>
       </c>
       <c r="X88">
-        <v>0.316</v>
+        <v>0.375</v>
       </c>
       <c r="Y88">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
       <c r="Z88">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AA88">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="AB88">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="AC88">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD88" t="s">
         <v>215</v>
@@ -9170,73 +9158,73 @@
         <v>21</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="H90">
-        <v>1691</v>
+        <v>805</v>
       </c>
       <c r="I90">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="J90">
-        <v>539</v>
+        <v>244</v>
       </c>
       <c r="K90">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="L90">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="M90">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="N90">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="O90">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="P90">
-        <v>413</v>
+        <v>194</v>
       </c>
       <c r="Q90">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="R90">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="S90">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="T90">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="U90">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="V90">
-        <v>642</v>
+        <v>272</v>
       </c>
       <c r="W90">
-        <v>0.417</v>
+        <v>0.402</v>
       </c>
       <c r="X90">
-        <v>0.366</v>
+        <v>0.344</v>
       </c>
       <c r="Y90">
-        <v>0.766</v>
+        <v>0.711</v>
       </c>
       <c r="Z90">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="AA90">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB90">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AC90">
         <v>1</v>
@@ -9443,64 +9431,64 @@
         <v>22</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H93">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="I93">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J93">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="K93">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L93">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N93">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q93">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R93">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S93">
         <v>5</v>
       </c>
       <c r="T93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U93">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="V93">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="W93">
-        <v>0.314</v>
+        <v>0.319</v>
       </c>
       <c r="X93">
-        <v>0.306</v>
+        <v>0.286</v>
       </c>
       <c r="Y93">
-        <v>0.6</v>
+        <v>0.636</v>
       </c>
       <c r="Z93">
         <v>7.5</v>
@@ -9509,7 +9497,7 @@
         <v>2.3</v>
       </c>
       <c r="AB93">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC93">
         <v>0.3</v>
@@ -9535,76 +9523,76 @@
         <v>20</v>
       </c>
       <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>15</v>
+      </c>
+      <c r="H94">
+        <v>111</v>
+      </c>
+      <c r="I94">
+        <v>16</v>
+      </c>
+      <c r="J94">
+        <v>50</v>
+      </c>
+      <c r="K94">
+        <v>5</v>
+      </c>
+      <c r="L94">
+        <v>21</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>7</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>11</v>
+      </c>
+      <c r="Q94">
+        <v>5</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
         <v>2</v>
       </c>
-      <c r="G94">
-        <v>69</v>
-      </c>
-      <c r="H94">
-        <v>1197</v>
-      </c>
-      <c r="I94">
-        <v>170</v>
-      </c>
-      <c r="J94">
-        <v>408</v>
-      </c>
-      <c r="K94">
-        <v>87</v>
-      </c>
-      <c r="L94">
-        <v>227</v>
-      </c>
-      <c r="M94">
-        <v>36</v>
-      </c>
-      <c r="N94">
-        <v>48</v>
-      </c>
-      <c r="O94">
-        <v>21</v>
-      </c>
-      <c r="P94">
-        <v>100</v>
-      </c>
-      <c r="Q94">
-        <v>57</v>
-      </c>
-      <c r="R94">
+      <c r="T94">
+        <v>4</v>
+      </c>
+      <c r="U94">
+        <v>4</v>
+      </c>
+      <c r="V94">
         <v>40</v>
       </c>
-      <c r="S94">
-        <v>16</v>
-      </c>
-      <c r="T94">
-        <v>23</v>
-      </c>
-      <c r="U94">
-        <v>77</v>
-      </c>
-      <c r="V94">
-        <v>463</v>
-      </c>
       <c r="W94">
-        <v>0.417</v>
+        <v>0.32</v>
       </c>
       <c r="X94">
-        <v>0.383</v>
+        <v>0.238</v>
       </c>
       <c r="Y94">
-        <v>0.75</v>
+        <v>0.429</v>
       </c>
       <c r="Z94">
-        <v>17.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA94">
-        <v>6.7</v>
+        <v>2.7</v>
       </c>
       <c r="AB94">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AC94">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD94" t="s">
         <v>215</v>
@@ -9627,76 +9615,76 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="H95">
-        <v>1750</v>
+        <v>1459</v>
       </c>
       <c r="I95">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="J95">
-        <v>624</v>
+        <v>518</v>
       </c>
       <c r="K95">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L95">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="M95">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="N95">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="O95">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P95">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="Q95">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="R95">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S95">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="T95">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="U95">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="V95">
-        <v>850</v>
+        <v>695</v>
       </c>
       <c r="W95">
-        <v>0.454</v>
+        <v>0.448</v>
       </c>
       <c r="X95">
-        <v>0.384</v>
+        <v>0.394</v>
       </c>
       <c r="Y95">
-        <v>0.801</v>
+        <v>0.803</v>
       </c>
       <c r="Z95">
-        <v>19.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA95">
-        <v>9.699999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="AB95">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AC95">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD95" t="s">
         <v>215</v>
@@ -9719,73 +9707,73 @@
         <v>19</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H96">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="I96">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J96">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96">
+        <v>6</v>
+      </c>
+      <c r="N96">
+        <v>10</v>
+      </c>
+      <c r="O96">
+        <v>7</v>
+      </c>
+      <c r="P96">
+        <v>23</v>
+      </c>
+      <c r="Q96">
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <v>6</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
         <v>8</v>
       </c>
-      <c r="N96">
-        <v>12</v>
-      </c>
-      <c r="O96">
-        <v>10</v>
-      </c>
-      <c r="P96">
-        <v>32</v>
-      </c>
-      <c r="Q96">
-        <v>5</v>
-      </c>
-      <c r="R96">
-        <v>9</v>
-      </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
-      <c r="T96">
-        <v>15</v>
-      </c>
       <c r="U96">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="V96">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="W96">
-        <v>0.519</v>
+        <v>0.474</v>
       </c>
       <c r="X96">
         <v>0</v>
       </c>
       <c r="Y96">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="Z96">
         <v>4.1</v>
       </c>
       <c r="AA96">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AB96">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AC96">
         <v>0.2</v>
@@ -9811,76 +9799,76 @@
         <v>21</v>
       </c>
       <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>43</v>
+      </c>
+      <c r="H97">
+        <v>446</v>
+      </c>
+      <c r="I97">
+        <v>71</v>
+      </c>
+      <c r="J97">
+        <v>171</v>
+      </c>
+      <c r="K97">
+        <v>22</v>
+      </c>
+      <c r="L97">
+        <v>77</v>
+      </c>
+      <c r="M97">
+        <v>43</v>
+      </c>
+      <c r="N97">
+        <v>53</v>
+      </c>
+      <c r="O97">
+        <v>17</v>
+      </c>
+      <c r="P97">
+        <v>85</v>
+      </c>
+      <c r="Q97">
+        <v>24</v>
+      </c>
+      <c r="R97">
+        <v>11</v>
+      </c>
+      <c r="S97">
+        <v>13</v>
+      </c>
+      <c r="T97">
+        <v>39</v>
+      </c>
+      <c r="U97">
+        <v>57</v>
+      </c>
+      <c r="V97">
+        <v>207</v>
+      </c>
+      <c r="W97">
+        <v>0.415</v>
+      </c>
+      <c r="X97">
+        <v>0.286</v>
+      </c>
+      <c r="Y97">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="Z97">
+        <v>10.4</v>
+      </c>
+      <c r="AA97">
+        <v>4.8</v>
+      </c>
+      <c r="AB97">
         <v>2</v>
       </c>
-      <c r="G97">
-        <v>81</v>
-      </c>
-      <c r="H97">
-        <v>1167</v>
-      </c>
-      <c r="I97">
-        <v>203</v>
-      </c>
-      <c r="J97">
-        <v>402</v>
-      </c>
-      <c r="K97">
-        <v>45</v>
-      </c>
-      <c r="L97">
-        <v>144</v>
-      </c>
-      <c r="M97">
-        <v>110</v>
-      </c>
-      <c r="N97">
-        <v>135</v>
-      </c>
-      <c r="O97">
-        <v>69</v>
-      </c>
-      <c r="P97">
-        <v>280</v>
-      </c>
-      <c r="Q97">
-        <v>73</v>
-      </c>
-      <c r="R97">
-        <v>33</v>
-      </c>
-      <c r="S97">
-        <v>30</v>
-      </c>
-      <c r="T97">
-        <v>96</v>
-      </c>
-      <c r="U97">
-        <v>194</v>
-      </c>
-      <c r="V97">
-        <v>561</v>
-      </c>
-      <c r="W97">
-        <v>0.505</v>
-      </c>
-      <c r="X97">
-        <v>0.313</v>
-      </c>
-      <c r="Y97">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="Z97">
-        <v>14.4</v>
-      </c>
-      <c r="AA97">
-        <v>6.9</v>
-      </c>
-      <c r="AB97">
-        <v>3.5</v>
-      </c>
       <c r="AC97">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD97" t="s">
         <v>215</v>
@@ -9903,76 +9891,76 @@
         <v>20</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="H98">
-        <v>917</v>
+        <v>118</v>
       </c>
       <c r="I98">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="J98">
-        <v>325</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="L98">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M98">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="N98">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="O98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P98">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="Q98">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="R98">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="S98">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="T98">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="U98">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="V98">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="W98">
-        <v>0.428</v>
+        <v>0.348</v>
       </c>
       <c r="X98">
-        <v>0.407</v>
+        <v>0.385</v>
       </c>
       <c r="Y98">
-        <v>0.734</v>
+        <v>0.8</v>
       </c>
       <c r="Z98">
-        <v>12.9</v>
+        <v>6.9</v>
       </c>
       <c r="AA98">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="AB98">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD98" t="s">
         <v>215</v>
@@ -9995,76 +9983,76 @@
         <v>29</v>
       </c>
       <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>36</v>
+      </c>
+      <c r="H99">
+        <v>343</v>
+      </c>
+      <c r="I99">
+        <v>50</v>
+      </c>
+      <c r="J99">
+        <v>105</v>
+      </c>
+      <c r="K99">
+        <v>16</v>
+      </c>
+      <c r="L99">
+        <v>39</v>
+      </c>
+      <c r="M99">
+        <v>24</v>
+      </c>
+      <c r="N99">
+        <v>28</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>41</v>
+      </c>
+      <c r="Q99">
+        <v>56</v>
+      </c>
+      <c r="R99">
+        <v>12</v>
+      </c>
+      <c r="S99">
         <v>2</v>
       </c>
-      <c r="G99">
-        <v>100</v>
-      </c>
-      <c r="H99">
-        <v>1584</v>
-      </c>
-      <c r="I99">
-        <v>191</v>
-      </c>
-      <c r="J99">
-        <v>432</v>
-      </c>
-      <c r="K99">
-        <v>49</v>
-      </c>
-      <c r="L99">
-        <v>131</v>
-      </c>
-      <c r="M99">
-        <v>136</v>
-      </c>
-      <c r="N99">
-        <v>148</v>
-      </c>
-      <c r="O99">
-        <v>23</v>
-      </c>
-      <c r="P99">
-        <v>171</v>
-      </c>
-      <c r="Q99">
-        <v>215</v>
-      </c>
-      <c r="R99">
-        <v>66</v>
-      </c>
-      <c r="S99">
-        <v>14</v>
-      </c>
       <c r="T99">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="U99">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="V99">
-        <v>567</v>
+        <v>140</v>
       </c>
       <c r="W99">
-        <v>0.442</v>
+        <v>0.476</v>
       </c>
       <c r="X99">
-        <v>0.374</v>
+        <v>0.41</v>
       </c>
       <c r="Y99">
-        <v>0.919</v>
+        <v>0.857</v>
       </c>
       <c r="Z99">
-        <v>15.8</v>
+        <v>9.5</v>
       </c>
       <c r="AA99">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="AB99">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AC99">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD99" t="s">
         <v>215</v>
@@ -10179,76 +10167,76 @@
         <v>24</v>
       </c>
       <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>15</v>
+      </c>
+      <c r="H101">
+        <v>174</v>
+      </c>
+      <c r="I101">
+        <v>15</v>
+      </c>
+      <c r="J101">
+        <v>51</v>
+      </c>
+      <c r="K101">
         <v>2</v>
       </c>
-      <c r="G101">
+      <c r="L101">
+        <v>16</v>
+      </c>
+      <c r="M101">
+        <v>7</v>
+      </c>
+      <c r="N101">
+        <v>10</v>
+      </c>
+      <c r="O101">
+        <v>4</v>
+      </c>
+      <c r="P101">
         <v>31</v>
       </c>
-      <c r="H101">
-        <v>273</v>
-      </c>
-      <c r="I101">
-        <v>27</v>
-      </c>
-      <c r="J101">
-        <v>80</v>
-      </c>
-      <c r="K101">
-        <v>5</v>
-      </c>
-      <c r="L101">
-        <v>24</v>
-      </c>
-      <c r="M101">
-        <v>10</v>
-      </c>
-      <c r="N101">
-        <v>18</v>
-      </c>
-      <c r="O101">
-        <v>10</v>
-      </c>
-      <c r="P101">
-        <v>48</v>
-      </c>
       <c r="Q101">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R101">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T101">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U101">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="V101">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="W101">
-        <v>0.338</v>
+        <v>0.294</v>
       </c>
       <c r="X101">
-        <v>0.208</v>
+        <v>0.125</v>
       </c>
       <c r="Y101">
-        <v>0.556</v>
+        <v>0.7</v>
       </c>
       <c r="Z101">
-        <v>8.800000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="AA101">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AB101">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AC101">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD101" t="s">
         <v>215</v>
@@ -10363,73 +10351,73 @@
         <v>23</v>
       </c>
       <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>24</v>
+      </c>
+      <c r="H103">
+        <v>372</v>
+      </c>
+      <c r="I103">
+        <v>65</v>
+      </c>
+      <c r="J103">
+        <v>110</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
         <v>2</v>
       </c>
-      <c r="G103">
-        <v>36</v>
-      </c>
-      <c r="H103">
-        <v>519</v>
-      </c>
-      <c r="I103">
-        <v>81</v>
-      </c>
-      <c r="J103">
-        <v>135</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>4</v>
-      </c>
       <c r="M103">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N103">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O103">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="P103">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="Q103">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R103">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S103">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T103">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U103">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="V103">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="W103">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
       <c r="X103">
         <v>0</v>
       </c>
       <c r="Y103">
-        <v>0.5639999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Z103">
-        <v>14.4</v>
+        <v>15.5</v>
       </c>
       <c r="AA103">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB103">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AC103">
         <v>0.5</v>
@@ -10455,76 +10443,76 @@
         <v>24</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="H104">
-        <v>1858</v>
+        <v>1079</v>
       </c>
       <c r="I104">
+        <v>107</v>
+      </c>
+      <c r="J104">
+        <v>279</v>
+      </c>
+      <c r="K104">
+        <v>52</v>
+      </c>
+      <c r="L104">
         <v>156</v>
       </c>
-      <c r="J104">
-        <v>422</v>
-      </c>
-      <c r="K104">
-        <v>77</v>
-      </c>
-      <c r="L104">
-        <v>252</v>
-      </c>
       <c r="M104">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N104">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O104">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="P104">
-        <v>397</v>
+        <v>219</v>
       </c>
       <c r="Q104">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="R104">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="S104">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="T104">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="U104">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="V104">
-        <v>411</v>
+        <v>279</v>
       </c>
       <c r="W104">
-        <v>0.37</v>
+        <v>0.384</v>
       </c>
       <c r="X104">
-        <v>0.306</v>
+        <v>0.333</v>
       </c>
       <c r="Y104">
-        <v>0.512</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Z104">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="AA104">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="AB104">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AC104">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD104" t="s">
         <v>215</v>
@@ -10547,19 +10535,19 @@
         <v>21</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>606</v>
+        <v>283</v>
       </c>
       <c r="I105">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J105">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -10568,52 +10556,52 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N105">
+        <v>15</v>
+      </c>
+      <c r="O105">
+        <v>27</v>
+      </c>
+      <c r="P105">
+        <v>81</v>
+      </c>
+      <c r="Q105">
+        <v>7</v>
+      </c>
+      <c r="R105">
+        <v>9</v>
+      </c>
+      <c r="S105">
         <v>40</v>
       </c>
-      <c r="O105">
-        <v>61</v>
-      </c>
-      <c r="P105">
-        <v>189</v>
-      </c>
-      <c r="Q105">
-        <v>29</v>
-      </c>
-      <c r="R105">
-        <v>29</v>
-      </c>
-      <c r="S105">
-        <v>68</v>
-      </c>
       <c r="T105">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U105">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V105">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="W105">
-        <v>0.6899999999999999</v>
+        <v>0.706</v>
       </c>
       <c r="Y105">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Z105">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA105">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="AB105">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AC105">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD105" t="s">
         <v>215</v>
@@ -10636,76 +10624,76 @@
         <v>20</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="H106">
-        <v>4623</v>
+        <v>2503</v>
       </c>
       <c r="I106">
-        <v>1071</v>
+        <v>525</v>
       </c>
       <c r="J106">
-        <v>2505</v>
+        <v>1256</v>
       </c>
       <c r="K106">
-        <v>361</v>
+        <v>156</v>
       </c>
       <c r="L106">
-        <v>1050</v>
+        <v>482</v>
       </c>
       <c r="M106">
-        <v>824</v>
+        <v>343</v>
       </c>
       <c r="N106">
-        <v>973</v>
+        <v>414</v>
       </c>
       <c r="O106">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="P106">
-        <v>556</v>
+        <v>301</v>
       </c>
       <c r="Q106">
-        <v>1213</v>
+        <v>653</v>
       </c>
       <c r="R106">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="S106">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="T106">
-        <v>597</v>
+        <v>308</v>
       </c>
       <c r="U106">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="V106">
-        <v>3327</v>
+        <v>1549</v>
       </c>
       <c r="W106">
-        <v>0.428</v>
+        <v>0.418</v>
       </c>
       <c r="X106">
-        <v>0.344</v>
+        <v>0.324</v>
       </c>
       <c r="Y106">
-        <v>0.847</v>
+        <v>0.829</v>
       </c>
       <c r="Z106">
-        <v>32.8</v>
+        <v>30.9</v>
       </c>
       <c r="AA106">
-        <v>23.6</v>
+        <v>19.1</v>
       </c>
       <c r="AB106">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AC106">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="AD106" t="s">
         <v>215</v>
